--- a/VA Xie JAMA paper/xie calculation.xlsx
+++ b/VA Xie JAMA paper/xie calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\VA Xie JAMA paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF1B3C1-7E57-4941-AA87-695224FAEAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD8EDD3-EE74-4D02-9DA3-19FE2ED3A4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12680" yWindow="4700" windowWidth="16270" windowHeight="13710" xr2:uid="{65B2E205-C6AE-4182-8F20-F511F927DFB7}"/>
+    <workbookView xWindow="2140" yWindow="3380" windowWidth="16270" windowHeight="13710" xr2:uid="{65B2E205-C6AE-4182-8F20-F511F927DFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>hospitalized for flu</t>
   </si>
@@ -59,19 +59,64 @@
     <t>Boosted</t>
   </si>
   <si>
-    <t>Influenza vaccine (%)</t>
-  </si>
-  <si>
-    <t>For 50% reduction for the flu vaccine and 90% reduction for the COVID vaccine.</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov/vaccines/acip/recs/grade/covid-19-pfizer-biontech-vaccine.html</t>
-  </si>
-  <si>
     <t>Paper for the COVID hospitalization reduction:</t>
   </si>
   <si>
     <t>Total number in cohort</t>
+  </si>
+  <si>
+    <t>these are the results in the paper</t>
+  </si>
+  <si>
+    <t>https://kirschsubstack.com/p/va-data-shows-covid-boosters-increased?utm_source=publication-search</t>
+  </si>
+  <si>
+    <t>https://kirschsubstack.com/p/va-study-published-in-jama-shows</t>
+  </si>
+  <si>
+    <t>Original paper here</t>
+  </si>
+  <si>
+    <t>https://jamanetwork.com/journals/jama/fullarticle/2803749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to do the Fisher test, you look at control vs. experiment where </t>
+  </si>
+  <si>
+    <t>control = # flu unvaxxed , # of flu vaxxed in those hospitalized for COVID</t>
+  </si>
+  <si>
+    <t>treatment = # flu unvaxxed , # of flu vaxxed in those hospitalized for FLU</t>
+  </si>
+  <si>
+    <t>In the case of COVID, it's the reverse, but there is a calculation for the 3 different treatment conditions (so 3 different treatments: 1,2, and booste)</t>
+  </si>
+  <si>
+    <t>treatment1 = # covid unvaxxed , # of covid vaxxed with shot 1 in those hospitalized for COVID</t>
+  </si>
+  <si>
+    <t>treatment2 = # covid unvaxxed , # of covid vaxxed with shot 2 in those hospitalized for COVID</t>
+  </si>
+  <si>
+    <t>control = # covid unvaxxed , # of covid vaxxed with DOSE N in those hospitalized for FLU</t>
+  </si>
+  <si>
+    <t>Paper for the stats on the effect showing there is not effect.</t>
+  </si>
+  <si>
+    <t>NOTE: For the COVID case there is a different CONTROL for each of the 1,2,3 cohorts based on the number of doses (DOSE N)</t>
+  </si>
+  <si>
+    <t>Influenza unvaccinated (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influenza vaccinated </t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -107,9 +152,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,112 +496,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C6AEFE-8C4B-478A-8484-61153A9F5447}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.54296875" customWidth="1"/>
     <col min="2" max="2" width="27.1796875" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>2403</v>
+      </c>
+      <c r="D2">
+        <v>8996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>18.89</v>
       </c>
-      <c r="C4" s="1">
-        <f>B4/27.001*100</f>
-        <v>69.960371838080064</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C5" s="2">
+        <f>$B$2*B5/100</f>
+        <v>453.92669999999998</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20.73</v>
+      </c>
+      <c r="E5" s="2">
+        <f>$D$2*D5/100</f>
+        <v>1864.8708000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>4.74</v>
       </c>
-      <c r="C5" s="1">
-        <f>B5/10/(27.001)*100</f>
-        <v>1.755490537387504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:C11" si="0">$B$2*B6/100</f>
+        <v>113.90220000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ref="E6:E11" si="1">$D$2*D6/100</f>
+        <v>384.12919999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>21.51</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:C7" si="0">B6/10/(27.001)*100</f>
-        <v>7.9663716158660804</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>516.88530000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20.46</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>1840.5816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>54.85</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>20.314062442131771</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>46.89</v>
-      </c>
-      <c r="C9">
+        <v>1318.0455000000002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>54.54</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>4906.4183999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <f>100-B11</f>
+        <v>38.119999999999997</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>916.02359999999999</v>
+      </c>
+      <c r="D10">
+        <f>100-D11</f>
+        <v>36.159999999999997</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>3252.9535999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>61.88</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>1486.9764000000002</v>
+      </c>
+      <c r="D11">
         <v>63.84</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>5743.0464000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VA Xie JAMA paper/xie calculation.xlsx
+++ b/VA Xie JAMA paper/xie calculation.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\VA Xie JAMA paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD8EDD3-EE74-4D02-9DA3-19FE2ED3A4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C46A39-2A45-4950-AEED-78624EFEB357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="3380" windowWidth="16270" windowHeight="13710" xr2:uid="{65B2E205-C6AE-4182-8F20-F511F927DFB7}"/>
+    <workbookView xWindow="7650" yWindow="2730" windowWidth="24050" windowHeight="18130" xr2:uid="{65B2E205-C6AE-4182-8F20-F511F927DFB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Xie paper impact of vax" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>hospitalized for flu</t>
   </si>
@@ -83,9 +83,6 @@
     <t xml:space="preserve">to do the Fisher test, you look at control vs. experiment where </t>
   </si>
   <si>
-    <t>control = # flu unvaxxed , # of flu vaxxed in those hospitalized for COVID</t>
-  </si>
-  <si>
     <t>treatment = # flu unvaxxed , # of flu vaxxed in those hospitalized for FLU</t>
   </si>
   <si>
@@ -117,14 +114,58 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>flu vaccine</t>
+  </si>
+  <si>
+    <t># unvaxxed</t>
+  </si>
+  <si>
+    <t>control = # flu unvaxxed vs. # of flu vaxxed in those hospitalized for COVID</t>
+  </si>
+  <si>
+    <t># vaxxed</t>
+  </si>
+  <si>
+    <t>CONTROL (count for the opposite infection)</t>
+  </si>
+  <si>
+    <t>EXPERIMENT (count for this infection)</t>
+  </si>
+  <si>
+    <t>Intervention</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Here are the  fisher values. OR &gt;1 means the vaccine mad thing worse.</t>
+  </si>
+  <si>
+    <t>COVID shot #1</t>
+  </si>
+  <si>
+    <t>COVID shot #2</t>
+  </si>
+  <si>
+    <t>COVID booster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -152,14 +193,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -496,57 +539,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C6AEFE-8C4B-478A-8484-61153A9F5447}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.54296875" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
     <col min="3" max="3" width="27.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <v>2403</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -557,15 +602,15 @@
         <f>$B$2*B5/100</f>
         <v>453.92669999999998</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>20.73</v>
       </c>
-      <c r="E5" s="2">
-        <f>$D$2*D5/100</f>
+      <c r="F5" s="2">
+        <f>$E$2*E5/100</f>
         <v>1864.8708000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -576,15 +621,15 @@
         <f t="shared" ref="C6:C11" si="0">$B$2*B6/100</f>
         <v>113.90220000000001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E6" s="2">
-        <f t="shared" ref="E6:E11" si="1">$D$2*D6/100</f>
+      <c r="F6" s="2">
+        <f>$E$2*E6/100</f>
         <v>384.12919999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -595,15 +640,15 @@
         <f t="shared" si="0"/>
         <v>516.88530000000003</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>20.46</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" si="1"/>
+      <c r="F7" s="2">
+        <f>$E$2*E7/100</f>
         <v>1840.5816</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -614,20 +659,20 @@
         <f t="shared" si="0"/>
         <v>1318.0455000000002</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>54.54</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="1"/>
+      <c r="F8" s="2">
+        <f>$E$2*E8/100</f>
         <v>4906.4183999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <f>100-B11</f>
@@ -637,18 +682,18 @@
         <f t="shared" si="0"/>
         <v>916.02359999999999</v>
       </c>
-      <c r="D10">
-        <f>100-D11</f>
+      <c r="E10">
+        <f>100-E11</f>
         <v>36.159999999999997</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" si="1"/>
+      <c r="F10" s="2">
+        <f>$E$2*E10/100</f>
         <v>3252.9535999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>61.88</v>
@@ -657,32 +702,32 @@
         <f t="shared" si="0"/>
         <v>1486.9764000000002</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>63.84</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" si="1"/>
+      <c r="F11" s="2">
+        <f>$E$2*E11/100</f>
         <v>5743.0464000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
@@ -707,42 +752,176 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="2">
+        <f>F10</f>
+        <v>3252.9535999999998</v>
+      </c>
+      <c r="C39" s="2">
+        <f>F11</f>
+        <v>5743.0464000000002</v>
+      </c>
+      <c r="E39" s="2">
+        <f>C10</f>
+        <v>916.02359999999999</v>
+      </c>
+      <c r="F39" s="2">
+        <f>C11</f>
+        <v>1486.9764000000002</v>
+      </c>
+      <c r="H39" s="1">
+        <f>F39/E39*B39/C39</f>
+        <v>0.91946024557721695</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="2">
+        <f>$C$5</f>
+        <v>453.92669999999998</v>
+      </c>
+      <c r="C40" s="2">
+        <f>C6</f>
+        <v>113.90220000000001</v>
+      </c>
+      <c r="E40" s="2">
+        <f>$F$5</f>
+        <v>1864.8708000000001</v>
+      </c>
+      <c r="F40" s="2">
+        <f>F6</f>
+        <v>384.12919999999997</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" ref="H40:H42" si="1">F40/E40*B40/C40</f>
+        <v>0.82088475293150198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" ref="B41:B42" si="2">$C$5</f>
+        <v>453.92669999999998</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" ref="C41:C42" si="3">C7</f>
+        <v>516.88530000000003</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" ref="E41:E42" si="4">$F$5</f>
+        <v>1864.8708000000001</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" ref="F41:F42" si="5">F7</f>
+        <v>1840.5816</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86675803197247459</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="2"/>
+        <v>453.92669999999998</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="3"/>
+        <v>1318.0455000000002</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="4"/>
+        <v>1864.8708000000001</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="5"/>
+        <v>4906.4183999999996</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.90608962477589805</v>
       </c>
     </row>
   </sheetData>

--- a/VA Xie JAMA paper/xie calculation.xlsx
+++ b/VA Xie JAMA paper/xie calculation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\VA Xie JAMA paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C46A39-2A45-4950-AEED-78624EFEB357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8416E0F4-EB53-4BD8-A788-1088A6090879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="2730" windowWidth="24050" windowHeight="18130" xr2:uid="{65B2E205-C6AE-4182-8F20-F511F927DFB7}"/>
+    <workbookView xWindow="13670" yWindow="660" windowWidth="21130" windowHeight="18130" activeTab="1" xr2:uid="{65B2E205-C6AE-4182-8F20-F511F927DFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Xie paper impact of vax" sheetId="1" r:id="rId1"/>
+    <sheet name="propensity numbers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>hospitalized for flu</t>
   </si>
@@ -80,30 +81,9 @@
     <t>https://jamanetwork.com/journals/jama/fullarticle/2803749</t>
   </si>
   <si>
-    <t xml:space="preserve">to do the Fisher test, you look at control vs. experiment where </t>
-  </si>
-  <si>
-    <t>treatment = # flu unvaxxed , # of flu vaxxed in those hospitalized for FLU</t>
-  </si>
-  <si>
-    <t>In the case of COVID, it's the reverse, but there is a calculation for the 3 different treatment conditions (so 3 different treatments: 1,2, and booste)</t>
-  </si>
-  <si>
-    <t>treatment1 = # covid unvaxxed , # of covid vaxxed with shot 1 in those hospitalized for COVID</t>
-  </si>
-  <si>
-    <t>treatment2 = # covid unvaxxed , # of covid vaxxed with shot 2 in those hospitalized for COVID</t>
-  </si>
-  <si>
-    <t>control = # covid unvaxxed , # of covid vaxxed with DOSE N in those hospitalized for FLU</t>
-  </si>
-  <si>
     <t>Paper for the stats on the effect showing there is not effect.</t>
   </si>
   <si>
-    <t>NOTE: For the COVID case there is a different CONTROL for each of the 1,2,3 cohorts based on the number of doses (DOSE N)</t>
-  </si>
-  <si>
     <t>Influenza unvaccinated (%)</t>
   </si>
   <si>
@@ -119,15 +99,6 @@
     <t>flu vaccine</t>
   </si>
   <si>
-    <t># unvaxxed</t>
-  </si>
-  <si>
-    <t>control = # flu unvaxxed vs. # of flu vaxxed in those hospitalized for COVID</t>
-  </si>
-  <si>
-    <t># vaxxed</t>
-  </si>
-  <si>
     <t>CONTROL (count for the opposite infection)</t>
   </si>
   <si>
@@ -150,13 +121,31 @@
   </si>
   <si>
     <t>COVID booster</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t># vaxxed with that dose</t>
+  </si>
+  <si>
+    <t># not vaxxed with that dose</t>
+  </si>
+  <si>
+    <t>sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +160,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -204,6 +198,9 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C6AEFE-8C4B-478A-8484-61153A9F5447}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="26.54296875" customWidth="1"/>
     <col min="2" max="2" width="21.26953125" customWidth="1"/>
@@ -554,7 +551,7 @@
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -573,25 +570,25 @@
         <v>8996</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -610,7 +607,7 @@
         <v>1864.8708000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -629,7 +626,7 @@
         <v>384.12919999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -648,7 +645,7 @@
         <v>1840.5816</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -667,12 +664,12 @@
         <v>4906.4183999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <f>100-B11</f>
@@ -691,9 +688,9 @@
         <v>3252.9535999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>61.88</v>
@@ -710,219 +707,717 @@
         <v>5743.0464000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="K27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="2">
+      <c r="B28" s="2">
         <f>F10</f>
         <v>3252.9535999999998</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C28" s="2">
         <f>F11</f>
         <v>5743.0464000000002</v>
       </c>
-      <c r="E39" s="2">
+      <c r="D28" s="2">
+        <f>B28+C28</f>
+        <v>8996</v>
+      </c>
+      <c r="E28" s="2">
         <f>C10</f>
         <v>916.02359999999999</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F28" s="2">
         <f>C11</f>
         <v>1486.9764000000002</v>
       </c>
-      <c r="H39" s="1">
-        <f>F39/E39*B39/C39</f>
+      <c r="G28" s="2">
+        <f>E28+F28</f>
+        <v>2403</v>
+      </c>
+      <c r="I28" s="1">
+        <f>F28/E28*B28/C28</f>
         <v>0.91946024557721695</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="2">
-        <f>$C$5</f>
-        <v>453.92669999999998</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="J28" s="7">
+        <f>EXP(LN(I28) - 1.96 * SQRT(1/B28 + 1/E28 + 1/C28 + 1/F28))</f>
+        <v>0.83790470156321439</v>
+      </c>
+      <c r="K28" s="7">
+        <f>EXP(LN(I28) + 1.96 * SQRT(1/B28 + 1/E28 + 1/C28 + 1/F28))</f>
+        <v>1.0089538125513617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <f>$B$2-C29</f>
+        <v>2289.0978</v>
+      </c>
+      <c r="C29" s="2">
         <f>C6</f>
         <v>113.90220000000001</v>
       </c>
-      <c r="E40" s="2">
-        <f>$F$5</f>
-        <v>1864.8708000000001</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="D29" s="2">
+        <f t="shared" ref="D29:D31" si="1">B29+C29</f>
+        <v>2403</v>
+      </c>
+      <c r="E29" s="2">
+        <f>$E$2-F29</f>
+        <v>8611.8708000000006</v>
+      </c>
+      <c r="F29" s="2">
         <f>F6</f>
         <v>384.12919999999997</v>
       </c>
-      <c r="H40" s="1">
-        <f t="shared" ref="H40:H42" si="1">F40/E40*B40/C40</f>
-        <v>0.82088475293150198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="2">
-        <f t="shared" ref="B41:B42" si="2">$C$5</f>
-        <v>453.92669999999998</v>
-      </c>
-      <c r="C41" s="2">
-        <f t="shared" ref="C41:C42" si="3">C7</f>
+      <c r="G29" s="2">
+        <f t="shared" ref="G29:G31" si="2">E29+F29</f>
+        <v>8996</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" ref="I29:I31" si="3">F29/E29*B29/C29</f>
+        <v>0.89642106116843201</v>
+      </c>
+      <c r="J29" s="7">
+        <f>EXP(LN(I29) - 1.96 * SQRT(1/B29 + 1/E29 + 1/C29 + 1/F29))</f>
+        <v>0.72362896602916615</v>
+      </c>
+      <c r="K29" s="7">
+        <f>EXP(LN(I29) + 1.96 * SQRT(1/B29 + 1/E29 + 1/C29 + 1/F29))</f>
+        <v>1.1104734009140667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" ref="B30:B31" si="4">$B$2-C30</f>
+        <v>1886.1147000000001</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" ref="C30:C31" si="5">C7</f>
         <v>516.88530000000003</v>
       </c>
-      <c r="E41" s="2">
-        <f t="shared" ref="E41:E42" si="4">$F$5</f>
+      <c r="D30" s="2">
+        <f t="shared" si="1"/>
+        <v>2403</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ref="E30:E31" si="6">$E$2-F30</f>
+        <v>7155.4184000000005</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" ref="F30:F31" si="7">F7</f>
+        <v>1840.5816</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="2"/>
+        <v>8996</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9386289855651867</v>
+      </c>
+      <c r="J30" s="7">
+        <f>EXP(LN(I30) - 1.96 * SQRT(1/B30 + 1/E30 + 1/C30 + 1/F30))</f>
+        <v>0.8408825081047584</v>
+      </c>
+      <c r="K30" s="7">
+        <f>EXP(LN(I30) + 1.96 * SQRT(1/B30 + 1/E30 + 1/C30 + 1/F30))</f>
+        <v>1.0477377803099361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="4"/>
+        <v>1084.9544999999998</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="5"/>
+        <v>1318.0455000000002</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>2403</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="6"/>
+        <v>4089.5816000000004</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="7"/>
+        <v>4906.4183999999996</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="2"/>
+        <v>8996</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="3"/>
+        <v>0.98756758122480137</v>
+      </c>
+      <c r="J31" s="7">
+        <f>EXP(LN(I31) - 1.96 * SQRT(1/B31 + 1/E31 + 1/C31 + 1/F31))</f>
+        <v>0.90217996882924156</v>
+      </c>
+      <c r="K31" s="7">
+        <f>EXP(LN(I31) + 1.96 * SQRT(1/B31 + 1/E31 + 1/C31 + 1/F31))</f>
+        <v>1.0810367788943902</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FA8F37-4B23-46BC-A61C-8CF0BF61EB77}">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>2403</v>
+      </c>
+      <c r="E2">
+        <v>8996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>17.84</v>
+      </c>
+      <c r="C5" s="2">
+        <f>$B$2*B5/100</f>
+        <v>428.69519999999994</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20.73</v>
+      </c>
+      <c r="F5" s="2">
+        <f>$E$2*E5/100</f>
         <v>1864.8708000000001</v>
       </c>
-      <c r="F41" s="2">
-        <f t="shared" ref="F41:F42" si="5">F7</f>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4.68</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:C11" si="0">$B$2*B6/100</f>
+        <v>112.46039999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="F6" s="2">
+        <f>$E$2*E6/100</f>
+        <v>384.12919999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>22.06</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>530.10180000000003</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20.46</v>
+      </c>
+      <c r="F7" s="2">
+        <f>$E$2*E7/100</f>
         <v>1840.5816</v>
       </c>
-      <c r="H41" s="1">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>55.43</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>1331.9829</v>
+      </c>
+      <c r="E8" s="1">
+        <v>54.54</v>
+      </c>
+      <c r="F8" s="2">
+        <f>$E$2*E8/100</f>
+        <v>4906.4183999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <f>100-B11</f>
+        <v>36.57</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>878.77710000000002</v>
+      </c>
+      <c r="E10">
+        <f>100-E11</f>
+        <v>36.159999999999997</v>
+      </c>
+      <c r="F10" s="2">
+        <f>$E$2*E10/100</f>
+        <v>3252.9535999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>63.43</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>1524.2229</v>
+      </c>
+      <c r="E11">
+        <v>63.84</v>
+      </c>
+      <c r="F11" s="2">
+        <f>$E$2*E11/100</f>
+        <v>5743.0464000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2">
+        <f>F10</f>
+        <v>3252.9535999999998</v>
+      </c>
+      <c r="C28" s="2">
+        <f>F11</f>
+        <v>5743.0464000000002</v>
+      </c>
+      <c r="D28" s="2">
+        <f>B28+C28</f>
+        <v>8996</v>
+      </c>
+      <c r="E28" s="2">
+        <f>C10</f>
+        <v>878.77710000000002</v>
+      </c>
+      <c r="F28" s="2">
+        <f>C11</f>
+        <v>1524.2229</v>
+      </c>
+      <c r="G28" s="2">
+        <f>E28+F28</f>
+        <v>2403</v>
+      </c>
+      <c r="I28" s="1">
+        <f>F28/E28*B28/C28</f>
+        <v>0.98243832167237877</v>
+      </c>
+      <c r="J28" s="7">
+        <f>EXP(LN(I28) - 1.96 * SQRT(1/B28 + 1/E28 + 1/C28 + 1/F28))</f>
+        <v>0.89474624251002932</v>
+      </c>
+      <c r="K28" s="7">
+        <f>EXP(LN(I28) + 1.96 * SQRT(1/B28 + 1/E28 + 1/C28 + 1/F28))</f>
+        <v>1.0787249054914265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <f>$B$2-C29</f>
+        <v>2290.5396000000001</v>
+      </c>
+      <c r="C29" s="2">
+        <f>C6</f>
+        <v>112.46039999999999</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29:D31" si="1">B29+C29</f>
+        <v>2403</v>
+      </c>
+      <c r="E29" s="2">
+        <f>$E$2-F29</f>
+        <v>8611.8708000000006</v>
+      </c>
+      <c r="F29" s="2">
+        <f>F6</f>
+        <v>384.12919999999997</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" ref="G29:G31" si="2">E29+F29</f>
+        <v>8996</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" ref="I29:I31" si="3">F29/E29*B29/C29</f>
+        <v>0.90848549294177616</v>
+      </c>
+      <c r="J29" s="7">
+        <f>EXP(LN(I29) - 1.96 * SQRT(1/B29 + 1/E29 + 1/C29 + 1/F29))</f>
+        <v>0.73263134142033071</v>
+      </c>
+      <c r="K29" s="7">
+        <f>EXP(LN(I29) + 1.96 * SQRT(1/B29 + 1/E29 + 1/C29 + 1/F29))</f>
+        <v>1.1265500726266888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" ref="B30:B31" si="4">$B$2-C30</f>
+        <v>1872.8982000000001</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" ref="C30:C31" si="5">C7</f>
+        <v>530.10180000000003</v>
+      </c>
+      <c r="D30" s="2">
         <f t="shared" si="1"/>
-        <v>0.86675803197247459</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="2">
+        <v>2403</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ref="E30:E31" si="6">$E$2-F30</f>
+        <v>7155.4184000000005</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" ref="F30:F31" si="7">F7</f>
+        <v>1840.5816</v>
+      </c>
+      <c r="G30" s="2">
         <f t="shared" si="2"/>
-        <v>453.92669999999998</v>
-      </c>
-      <c r="C42" s="2">
+        <v>8996</v>
+      </c>
+      <c r="I30" s="1">
         <f t="shared" si="3"/>
-        <v>1318.0455000000002</v>
-      </c>
-      <c r="E42" s="2">
+        <v>0.90881384825849254</v>
+      </c>
+      <c r="J30" s="7">
+        <f>EXP(LN(I30) - 1.96 * SQRT(1/B30 + 1/E30 + 1/C30 + 1/F30))</f>
+        <v>0.81480748973851247</v>
+      </c>
+      <c r="K30" s="7">
+        <f>EXP(LN(I30) + 1.96 * SQRT(1/B30 + 1/E30 + 1/C30 + 1/F30))</f>
+        <v>1.0136659532320589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
         <f t="shared" si="4"/>
-        <v>1864.8708000000001</v>
-      </c>
-      <c r="F42" s="2">
+        <v>1071.0171</v>
+      </c>
+      <c r="C31" s="2">
         <f t="shared" si="5"/>
+        <v>1331.9829</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>2403</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="6"/>
+        <v>4089.5816000000004</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="7"/>
         <v>4906.4183999999996</v>
       </c>
-      <c r="H42" s="1">
-        <f t="shared" si="1"/>
-        <v>0.90608962477589805</v>
-      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="2"/>
+        <v>8996</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96468040649121722</v>
+      </c>
+      <c r="J31" s="7">
+        <f>EXP(LN(I31) - 1.96 * SQRT(1/B31 + 1/E31 + 1/C31 + 1/F31))</f>
+        <v>0.88119580323765134</v>
+      </c>
+      <c r="K31" s="7">
+        <f>EXP(LN(I31) + 1.96 * SQRT(1/B31 + 1/E31 + 1/C31 + 1/F31))</f>
+        <v>1.0560743517489071</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VA Xie JAMA paper/xie calculation.xlsx
+++ b/VA Xie JAMA paper/xie calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\VA Xie JAMA paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8416E0F4-EB53-4BD8-A788-1088A6090879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C04875-4D8E-4211-AA79-3049B8B73B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13670" yWindow="660" windowWidth="21130" windowHeight="18130" activeTab="1" xr2:uid="{65B2E205-C6AE-4182-8F20-F511F927DFB7}"/>
   </bookViews>
@@ -539,7 +539,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:L33"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -965,7 +965,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/VA Xie JAMA paper/xie calculation.xlsx
+++ b/VA Xie JAMA paper/xie calculation.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\VA Xie JAMA paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C04875-4D8E-4211-AA79-3049B8B73B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D921E97-5396-4A9F-A07A-5AE49B1EE41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13670" yWindow="660" windowWidth="21130" windowHeight="18130" activeTab="1" xr2:uid="{65B2E205-C6AE-4182-8F20-F511F927DFB7}"/>
+    <workbookView xWindow="1755" yWindow="345" windowWidth="26400" windowHeight="14070" xr2:uid="{65B2E205-C6AE-4182-8F20-F511F927DFB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Xie paper impact of vax" sheetId="1" r:id="rId1"/>
-    <sheet name="propensity numbers" sheetId="2" r:id="rId2"/>
+    <sheet name="Xie paper raw" sheetId="1" r:id="rId1"/>
+    <sheet name="Xie propensity" sheetId="2" r:id="rId2"/>
+    <sheet name="About" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>hospitalized for flu</t>
   </si>
@@ -139,13 +140,40 @@
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The paper: </t>
+  </si>
+  <si>
+    <t>My findings:</t>
+  </si>
+  <si>
+    <t>This could be interpreted as a Test Negative case-controlled study for hospitalization</t>
+  </si>
+  <si>
+    <t>Found no significant hospitalization benefit from COVID shots; same for flu shots</t>
+  </si>
+  <si>
+    <t>Also, paper said deaths higher from the flu</t>
+  </si>
+  <si>
+    <t>but they never showed vaccination status of those with the flu; we'd expect ACM of unvaxxed could be 10X higher as we saw in Hoeg.</t>
+  </si>
+  <si>
+    <t>compared with overall seasonal influenza</t>
+  </si>
+  <si>
+    <t>they ommitted it. But most studies show a 50% benefit so this death comparison is unsurprising.</t>
+  </si>
+  <si>
+    <t>NO STATISTICALLY SIGNIFICANT BENEFIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +193,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -202,6 +244,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,22 +580,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C6AEFE-8C4B-478A-8484-61153A9F5447}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -570,7 +614,7 @@
         <v>8996</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -588,7 +632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -607,7 +651,7 @@
         <v>1864.8708000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -626,7 +670,7 @@
         <v>384.12919999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -645,7 +689,7 @@
         <v>1840.5816</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -664,10 +708,10 @@
         <v>4906.4183999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -688,7 +732,7 @@
         <v>3252.9535999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -707,47 +751,47 @@
         <v>5743.0464000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -761,7 +805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
@@ -790,7 +834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -831,7 +875,7 @@
         <v>1.0089538125513617</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -872,7 +916,7 @@
         <v>1.1104734009140667</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -913,7 +957,7 @@
         <v>1.0477377803099361</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -952,6 +996,11 @@
       <c r="K31" s="7">
         <f>EXP(LN(I31) + 1.96 * SQRT(1/B31 + 1/E31 + 1/C31 + 1/F31))</f>
         <v>1.0810367788943902</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -964,20 +1013,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FA8F37-4B23-46BC-A61C-8CF0BF61EB77}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -985,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -996,7 +1045,7 @@
         <v>8996</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1033,7 +1082,7 @@
         <v>1864.8708000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1101,7 @@
         <v>384.12919999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1120,7 @@
         <v>1840.5816</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1090,10 +1139,10 @@
         <v>4906.4183999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1114,7 +1163,7 @@
         <v>3252.9535999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1133,42 +1182,42 @@
         <v>5743.0464000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
@@ -1211,7 +1260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1252,7 +1301,7 @@
         <v>1.0787249054914265</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1293,7 +1342,7 @@
         <v>1.1265500726266888</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1334,7 +1383,7 @@
         <v>1.0136659532320589</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1375,10 +1424,15 @@
         <v>1.0560743517489071</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -1387,7 +1441,7 @@
       <c r="F38" s="5"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1395,7 +1449,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1403,7 +1457,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1411,7 +1465,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1423,4 +1477,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06179543-DBA0-4F6D-B69B-AAE985B60AA6}">
+  <dimension ref="B3:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VA Xie JAMA paper/xie calculation.xlsx
+++ b/VA Xie JAMA paper/xie calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\VA Xie JAMA paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D921E97-5396-4A9F-A07A-5AE49B1EE41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56C8549-2434-4D2D-8E0B-36B254A9F807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1755" yWindow="345" windowWidth="26400" windowHeight="14070" xr2:uid="{65B2E205-C6AE-4182-8F20-F511F927DFB7}"/>
   </bookViews>
